--- a/models/TB-interactions.xlsx
+++ b/models/TB-interactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b4010220_newcastle_ac_uk/Documents/Documents/Linguistics/PhD/MyProject/Analysis/trap-bath/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="607" documentId="13_ncr:1_{6E51F728-56C2-4A96-A7C3-A2FFAC0B9A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA964936-7A37-43D1-BEB3-D4462E42489A}"/>
+  <xr:revisionPtr revIDLastSave="663" documentId="13_ncr:1_{6E51F728-56C2-4A96-A7C3-A2FFAC0B9A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A152B4-A000-4083-8618-4FD7004219A1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{B368A873-FA52-4D9A-81DB-B86A0699A5D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="7" xr2:uid="{B368A873-FA52-4D9A-81DB-B86A0699A5D6}"/>
   </bookViews>
   <sheets>
     <sheet name="TBPF1SE" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="TBPlogdurDE" sheetId="6" r:id="rId5"/>
     <sheet name="TBPlogdurNE" sheetId="7" r:id="rId6"/>
     <sheet name="BF1" sheetId="4" r:id="rId7"/>
+    <sheet name="Blogdur" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="48">
   <si>
     <t>TRAP</t>
   </si>
@@ -175,6 +176,15 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>DECTE</t>
+  </si>
+  <si>
+    <t>DECTE:has_codaTRUE</t>
+  </si>
+  <si>
+    <t>CoRP-SE:has_codaTRUE</t>
   </si>
 </sst>
 </file>
@@ -193,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +213,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,13 +241,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82817F7B-F891-4C90-84D2-A2AD9ED49CC0}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,7 +713,7 @@
     <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -708,8 +732,26 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -737,8 +779,35 @@
         <f>D2-C2</f>
         <v>131.42999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1">
+        <f>S7</f>
+        <v>814.3</v>
+      </c>
+      <c r="M2" s="1">
+        <f>S7+S8</f>
+        <v>761.75</v>
+      </c>
+      <c r="N2" s="1">
+        <f>S7+S9</f>
+        <v>893.18</v>
+      </c>
+      <c r="O2" s="1">
+        <f>N2-L2</f>
+        <v>78.88</v>
+      </c>
+      <c r="P2" s="1">
+        <f>M2-L2</f>
+        <v>-52.549999999999955</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>N2-M2</f>
+        <v>131.42999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -766,8 +835,35 @@
         <f t="shared" si="0"/>
         <v>60.159999999999968</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <f>S7+S10</f>
+        <v>814.3</v>
+      </c>
+      <c r="M3" s="1">
+        <f>S7+S8+S10+S12</f>
+        <v>761.75</v>
+      </c>
+      <c r="N3" s="1">
+        <f>S7+S9+S10+S13</f>
+        <v>837.45999999999992</v>
+      </c>
+      <c r="O3" s="1">
+        <f>N3-L3</f>
+        <v>23.159999999999968</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3" si="1">M3-L3</f>
+        <v>-52.549999999999955</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q5" si="2">N3-M3</f>
+        <v>75.709999999999923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -784,7 +880,7 @@
         <v>864.81</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="1">D4-B4</f>
+        <f t="shared" ref="E4:E5" si="3">D4-B4</f>
         <v>4.7300000000000182</v>
       </c>
       <c r="F4" s="1">
@@ -795,8 +891,35 @@
         <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <f>S7+S11</f>
+        <v>814.3</v>
+      </c>
+      <c r="M4" s="1">
+        <f>S7+S8+S11+S14</f>
+        <v>761.75</v>
+      </c>
+      <c r="N4" s="1">
+        <f>S7+S9+S11+S15</f>
+        <v>819.03</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O5" si="4">N4-L4</f>
+        <v>4.7300000000000182</v>
+      </c>
+      <c r="P4" s="1">
+        <f>M4-L4</f>
+        <v>-52.549999999999955</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="2"/>
+        <v>57.279999999999973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -813,7 +936,7 @@
         <v>846.09999999999991</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.9399999999999409</v>
       </c>
       <c r="F5" s="1">
@@ -824,8 +947,35 @@
         <f t="shared" si="0"/>
         <v>85.600000000000023</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1">
+        <f>S7+S10+S11+S16</f>
+        <v>814.3</v>
+      </c>
+      <c r="M5" s="1">
+        <f>S7+S8+S10+S11+S12+S14+S16+S17</f>
+        <v>761.75</v>
+      </c>
+      <c r="N5" s="1">
+        <f>S7+S9+S10+S11+S13+S15+S16+S18</f>
+        <v>823.2399999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="4"/>
+        <v>8.9399999999999409</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5" si="5">M5-L5</f>
+        <v>-52.549999999999955</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="2"/>
+        <v>61.489999999999895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -834,119 +984,206 @@
         <v>834.18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:G6" si="2">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C6:G6" si="6">AVERAGE(C2:C5)</f>
         <v>777.18499999999995</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>863.10749999999996</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28.927499999999981</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-56.995000000000005</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>85.922499999999985</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(L2:L5)</f>
+        <v>814.3</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:Q6" si="7">AVERAGE(M2:M5)</f>
+        <v>761.75</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="7"/>
+        <v>843.22749999999996</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="7"/>
+        <v>28.927499999999981</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="7"/>
+        <v>-52.549999999999955</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>81.477499999999935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="4">
         <v>814.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4">
+        <v>814.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="4">
         <v>-52.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="4">
+        <v>-52.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="4">
         <v>78.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>78.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>10.88</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="3">
         <v>45.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="3">
         <v>15.55</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="4">
         <v>-55.72</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="4">
+        <v>-55.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="3">
         <v>-9.2200000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="4">
         <v>-74.150000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="4">
+        <v>-74.150000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="3">
         <v>-33.799999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="R16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="3">
         <v>-30.44</v>
       </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="R17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I18" s="4">
+        <v>59.93</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="4">
         <v>59.93</v>
       </c>
     </row>
@@ -957,19 +1194,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DE8BB4-2719-43BF-82D8-5B7AF0A00117}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -988,8 +1225,26 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1272,35 @@
         <f>D2-C2</f>
         <v>295.77999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1">
+        <f>S7</f>
+        <v>1334.28</v>
+      </c>
+      <c r="M2" s="1">
+        <f>S7+S8</f>
+        <v>1119.3499999999999</v>
+      </c>
+      <c r="N2" s="1">
+        <f>S7+S9</f>
+        <v>1415.1299999999999</v>
+      </c>
+      <c r="O2" s="1">
+        <f>N2-L2</f>
+        <v>80.849999999999909</v>
+      </c>
+      <c r="P2" s="1">
+        <f>M2-L2</f>
+        <v>-214.93000000000006</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>N2-M2</f>
+        <v>295.77999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1046,8 +1328,35 @@
         <f t="shared" ref="G3:G5" si="0">D3-C3</f>
         <v>377.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <f>S7+S10</f>
+        <v>1334.28</v>
+      </c>
+      <c r="M3" s="1">
+        <f>S7+S8+S10+S12</f>
+        <v>1119.3499999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <f>S7+S9+S10+S13</f>
+        <v>1521.6599999999999</v>
+      </c>
+      <c r="O3" s="1">
+        <f>N3-L3</f>
+        <v>187.37999999999988</v>
+      </c>
+      <c r="P3" s="1">
+        <f>M3-L3</f>
+        <v>-214.93000000000006</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q5" si="1">N3-M3</f>
+        <v>402.30999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1373,7 @@
         <v>1434.37</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E5" si="1">D4-B4</f>
+        <f t="shared" ref="E4:E5" si="2">D4-B4</f>
         <v>54.169999999999845</v>
       </c>
       <c r="F4" s="1">
@@ -1075,8 +1384,35 @@
         <f t="shared" si="0"/>
         <v>297.8599999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <f>S7+S11</f>
+        <v>1334.28</v>
+      </c>
+      <c r="M4" s="1">
+        <f>S7+S8+S11+S14</f>
+        <v>1119.3499999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <f>S7+S9+S11+S15</f>
+        <v>1415.1299999999999</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O5" si="3">N4-L4</f>
+        <v>80.849999999999909</v>
+      </c>
+      <c r="P4" s="1">
+        <f>M4-L4</f>
+        <v>-214.93000000000006</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="1"/>
+        <v>295.77999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1093,19 +1429,46 @@
         <v>1464.4499999999998</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.059999999999718</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5" si="2">C5-B5</f>
+        <f t="shared" ref="F5" si="4">C5-B5</f>
         <v>-308.79000000000019</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>344.84999999999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1">
+        <f>S7+S10+S11+S16</f>
+        <v>1334.28</v>
+      </c>
+      <c r="M5" s="1">
+        <f>S7+S8+S10+S11+S12+S14+S16+S17</f>
+        <v>1119.3499999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <f>S7+S9+S10+S11+S13+S15+S16+S18</f>
+        <v>1397.0199999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="3"/>
+        <v>62.739999999999782</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5" si="5">M5-L5</f>
+        <v>-214.93000000000006</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>277.66999999999985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1114,27 +1477,54 @@
         <v>1371.5175000000002</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6" si="3">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C6" si="6">AVERAGE(C2:C5)</f>
         <v>1132.0174999999999</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6" si="4">AVERAGE(D2:D5)</f>
+        <f t="shared" ref="D6" si="7">AVERAGE(D2:D5)</f>
         <v>1461.1324999999999</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6" si="5">AVERAGE(E2:E5)</f>
+        <f t="shared" ref="E6" si="8">AVERAGE(E2:E5)</f>
         <v>89.614999999999839</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:G6" si="6">AVERAGE(F2:F5)</f>
+        <f t="shared" ref="F6:G6" si="9">AVERAGE(F2:F5)</f>
         <v>-239.50000000000011</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>329.11499999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(L2:L5)</f>
+        <v>1334.28</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:Q6" si="10">AVERAGE(M2:M5)</f>
+        <v>1119.3499999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="10"/>
+        <v>1437.2349999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="10"/>
+        <v>102.95499999999987</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="10"/>
+        <v>-214.93000000000006</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="10"/>
+        <v>317.88499999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1143,23 +1533,23 @@
         <v>94.110000000000127</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:G7" si="7">MAX(C2:C5)-MIN(C2:C5)</f>
+        <f t="shared" ref="C7:G7" si="11">MAX(C2:C5)-MIN(C2:C5)</f>
         <v>33.259999999999991</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>115.45000000000005</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>151.32000000000016</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>118.20000000000005</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>82.190000000000055</v>
       </c>
       <c r="H7" t="s">
@@ -1168,98 +1558,183 @@
       <c r="I7">
         <v>1334.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MAX(L2:L5)-MIN(L2:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7:Q7" si="12">MAX(M2:M5)-MIN(M2:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="12"/>
+        <v>124.6400000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="12"/>
+        <v>124.6400000000001</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="12"/>
+        <v>124.6400000000001</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>1334.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
         <v>2</v>
       </c>
       <c r="I8">
         <v>-214.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>-214.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9">
         <v>80.849999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>80.849999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>8.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="3">
         <v>45.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="3">
         <v>24.34</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H13" t="s">
         <v>7</v>
       </c>
       <c r="I13">
         <v>106.53</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>106.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="3">
         <v>-28.76</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="3">
         <v>-26.68</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="R15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="3">
         <v>39.270000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="R16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="3">
         <v>-89.44</v>
       </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="R17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18">
         <v>-124.64</v>
       </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18">
+        <v>-124.64</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1271,7 +1746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1283,7 +1758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1887,7 +2362,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2178,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F6EB4-08BB-4007-B2B8-837680781183}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11:M22"/>
     </sheetView>
   </sheetViews>
@@ -2542,4 +3017,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE950C-C996-496B-A2FE-9E72550EB7EF}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <f>M8</f>
+        <v>2.15</v>
+      </c>
+      <c r="C2">
+        <f>M8+M10</f>
+        <v>2.15</v>
+      </c>
+      <c r="D2">
+        <f>M8+M9</f>
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <f>M8+M11</f>
+        <v>2.13</v>
+      </c>
+      <c r="C3">
+        <f>M8+M10+M11+M13</f>
+        <v>2.1799999999999997</v>
+      </c>
+      <c r="D3">
+        <f>M8+M9+M11+M12</f>
+        <v>2.0399999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <f>10^B2</f>
+        <v>141.25375446227542</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D8" si="0">10^C2</f>
+        <v>141.25375446227542</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>107.15193052376065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f>10^B3</f>
+        <v>134.89628825916537</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>151.35612484362076</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>109.64781961431841</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B7:B8)</f>
+        <v>138.0750213607204</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="1">AVERAGE(C7:C8)</f>
+        <v>146.30493965294809</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>108.39987506903952</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="7">
+        <v>-0.12</v>
+      </c>
+      <c r="N9">
+        <v>-1.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="N11">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="N12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N13">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>